--- a/tests/data.scripts/test/calorimetry/ds.09.ampoule.bad.no.opt/data.xlsx
+++ b/tests/data.scripts/test/calorimetry/ds.09.ampoule.bad.no.opt/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">SMAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -521,7 +524,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0000000000000000000000714307366203186</v>
+        <v>0.0000000000000000000000714307366483276</v>
       </c>
       <c r="B2" t="n">
         <v>0.00184418524863085</v>
@@ -536,7 +539,7 @@
         <v>0.0000213412790066673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000000000000000999285699978919</v>
+        <v>0.0000000000000000000999285700370759</v>
       </c>
     </row>
     <row r="3">
@@ -561,22 +564,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0000000000000000000000714307360956517</v>
+        <v>0.0000000000000000000000714307360956512</v>
       </c>
       <c r="B4" t="n">
         <v>0.00184418524863085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00000584396962418031</v>
+        <v>0.00000584396962418032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00303747347236248</v>
+        <v>0.00303747347236249</v>
       </c>
       <c r="E4" t="n">
         <v>0.0000213412790066673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000000000000000000999285692639058</v>
+        <v>0.0000000000000000000999285692639044</v>
       </c>
     </row>
     <row r="5">
@@ -601,22 +604,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0000000000000000000000714307360999318</v>
+        <v>0.0000000000000000000000714307360956517</v>
       </c>
       <c r="B6" t="n">
         <v>0.00184418524863085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00000584396962418032</v>
+        <v>0.00000584396962418031</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00303747347236249</v>
+        <v>0.00303747347236248</v>
       </c>
       <c r="E6" t="n">
         <v>0.0000213412790066673</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000000000000000000999285692698928</v>
+        <v>0.0000000000000000000999285692639058</v>
       </c>
     </row>
     <row r="7">
@@ -655,15 +658,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -671,16 +674,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -755,10 +758,10 @@
         <v>-5.1855396583073</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.351639658307296</v>
+        <v>-0.351639658307295</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0727445040872373</v>
+        <v>0.0727445040872371</v>
       </c>
     </row>
     <row r="3">
@@ -787,10 +790,10 @@
         <v>-5.20756283902778</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.231162839027779</v>
+        <v>-0.231162839027781</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0464518203978336</v>
+        <v>0.046451820397834</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +822,7 @@
         <v>-4.98413672186518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.608463278134819</v>
+        <v>0.60846327813482</v>
       </c>
       <c r="J4" t="n">
         <v>-0.108797925497053</v>
@@ -880,7 +883,7 @@
         <v>-6.11698470229357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410638146694262</v>
+        <v>0.410638146694263</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.68294889817359</v>
+        <v>-0.682948898173597</v>
       </c>
     </row>
     <row r="3">
@@ -918,7 +921,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101887790903386</v>
+        <v>0.0831910329108941</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +929,15 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0768819357757742</v>
+        <v>0.0768819357757744</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.427127720274403</v>
       </c>
     </row>
   </sheetData>
@@ -954,18 +965,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -973,13 +984,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -987,13 +998,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1015,16 +1026,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -1043,13 +1054,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1057,13 +1068,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1071,13 +1082,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1085,13 +1096,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1099,13 +1110,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1113,13 +1124,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1141,7 +1152,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
